--- a/Finanse_Kumor.xlsx
+++ b/Finanse_Kumor.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s-A121-27.CAMPUS.018\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBDFC7B-324F-426D-8A35-D980EC525418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2C99D2-DDA8-4BB4-B4EC-FC8127587D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="13" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{19EE711A-3283-4873-9107-9C9869A047C7}"/>
   </bookViews>
   <sheets>
     <sheet name="operacje" sheetId="1" r:id="rId1"/>
     <sheet name="kategorie" sheetId="2" r:id="rId2"/>
-    <sheet name="styczeń" sheetId="3" r:id="rId3"/>
-    <sheet name="luty" sheetId="4" r:id="rId4"/>
-    <sheet name="marzec" sheetId="5" r:id="rId5"/>
-    <sheet name="kwiecień" sheetId="6" r:id="rId6"/>
-    <sheet name="maj" sheetId="7" r:id="rId7"/>
-    <sheet name="czerwiec" sheetId="8" r:id="rId8"/>
-    <sheet name="lipiec" sheetId="9" r:id="rId9"/>
-    <sheet name="sierpień" sheetId="10" r:id="rId10"/>
-    <sheet name="wrzesień" sheetId="11" r:id="rId11"/>
-    <sheet name="październik" sheetId="12" r:id="rId12"/>
-    <sheet name="listopad" sheetId="13" r:id="rId13"/>
-    <sheet name="grudzień" sheetId="14" r:id="rId14"/>
+    <sheet name="bilans" sheetId="15" r:id="rId3"/>
+    <sheet name="styczeń" sheetId="3" r:id="rId4"/>
+    <sheet name="luty" sheetId="4" r:id="rId5"/>
+    <sheet name="marzec" sheetId="5" r:id="rId6"/>
+    <sheet name="kwiecień" sheetId="6" r:id="rId7"/>
+    <sheet name="maj" sheetId="7" r:id="rId8"/>
+    <sheet name="czerwiec" sheetId="8" r:id="rId9"/>
+    <sheet name="lipiec" sheetId="9" r:id="rId10"/>
+    <sheet name="sierpień" sheetId="10" r:id="rId11"/>
+    <sheet name="wrzesień" sheetId="11" r:id="rId12"/>
+    <sheet name="październik" sheetId="12" r:id="rId13"/>
+    <sheet name="listopad" sheetId="13" r:id="rId14"/>
+    <sheet name="grudzień" sheetId="14" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="68">
   <si>
     <t>Kwota</t>
   </si>
@@ -235,14 +236,54 @@
   <si>
     <t>grudzień</t>
   </si>
+  <si>
+    <t>Styczeń</t>
+  </si>
+  <si>
+    <t>Luty</t>
+  </si>
+  <si>
+    <t>Marzec</t>
+  </si>
+  <si>
+    <t>Kwiecień</t>
+  </si>
+  <si>
+    <t>Maj</t>
+  </si>
+  <si>
+    <t>Czerwiec</t>
+  </si>
+  <si>
+    <t>Lipiec</t>
+  </si>
+  <si>
+    <t>Sierpień</t>
+  </si>
+  <si>
+    <t>Wrzesień</t>
+  </si>
+  <si>
+    <t>Październik</t>
+  </si>
+  <si>
+    <t>Listopad</t>
+  </si>
+  <si>
+    <t>Grudzień</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;zł&quot;;[Red]\-#,##0.00\ &quot;zł&quot;"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -391,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -413,11 +454,84 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="85">
+  <dxfs count="109">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="#,##0.0\ &quot;zł&quot;"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;zł&quot;"/>
     </dxf>
@@ -949,18 +1063,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7016C1D7-8019-44A2-9C8F-C35CC22955DA}" name="operacje" displayName="operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7016C1D7-8019-44A2-9C8F-C35CC22955DA}" name="operacje" displayName="operacje" ref="A1:G207" totalsRowShown="0" headerRowDxfId="108" dataDxfId="107">
   <autoFilter ref="A1:G207" xr:uid="{7016C1D7-8019-44A2-9C8F-C35CC22955DA}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A7BF5FD6-E7F6-49E7-BD70-F1607EF1F3EB}" name="Kwota" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{9A816B60-D756-4164-83F3-B75575C50269}" name="Bank" dataDxfId="81"/>
-    <tableColumn id="3" xr3:uid="{3FFAAE4E-EC70-4761-AADA-42A5F290CA36}" name="Produkt" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{B1B81941-7C77-41CF-A6BC-6FFD3BA7E61E}" name="Kategoria" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{AB245718-9864-4D82-A5EC-40CD6DE88CEB}" name="Typ" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{A7BF5FD6-E7F6-49E7-BD70-F1607EF1F3EB}" name="Kwota" dataDxfId="106"/>
+    <tableColumn id="2" xr3:uid="{9A816B60-D756-4164-83F3-B75575C50269}" name="Bank" dataDxfId="105"/>
+    <tableColumn id="3" xr3:uid="{3FFAAE4E-EC70-4761-AADA-42A5F290CA36}" name="Produkt" dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{B1B81941-7C77-41CF-A6BC-6FFD3BA7E61E}" name="Kategoria" dataDxfId="103"/>
+    <tableColumn id="5" xr3:uid="{AB245718-9864-4D82-A5EC-40CD6DE88CEB}" name="Typ" dataDxfId="102">
       <calculatedColumnFormula>_xlfn.XLOOKUP(operacje[[#This Row],[Kategoria]],kategorie[Kategoria],kategorie[Typ],"",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A88DF091-A59B-4D13-B4CC-B9116A9EE463}" name="Data" dataDxfId="77"/>
-    <tableColumn id="7" xr3:uid="{88DAA4E4-A227-4185-99AB-DFD2DBFFDA3A}" name="Miesiąc" dataDxfId="76">
+    <tableColumn id="6" xr3:uid="{A88DF091-A59B-4D13-B4CC-B9116A9EE463}" name="Data" dataDxfId="101"/>
+    <tableColumn id="7" xr3:uid="{88DAA4E4-A227-4185-99AB-DFD2DBFFDA3A}" name="Miesiąc" dataDxfId="100">
       <calculatedColumnFormula>IF(ISBLANK(operacje[[#This Row],[Data]]),,MONTH(operacje[[#This Row],[Data]]))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -969,18 +1083,58 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A9CD3EC9-99A6-4868-B383-6B0C42390AAA}" name="maj_saldo" displayName="maj_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{5CA2E220-99DD-41F5-8C82-353DAF65DC72}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{A439D3D5-5BBB-4841-919C-AC577CF6CE50}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{9350BA87-D394-4A02-947E-E2C72D4EDDB3}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="70" totalsRowDxfId="71">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A3A5673D-2324-4462-8A7C-2615244E6F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="68" totalsRowDxfId="69">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],maj_saldo[[#This Row],[Bank]],operacje[Produkt],maj_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{06DAA3D4-CB0E-47AD-A1FD-B26FEDBBDEC3}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="66" totalsRowDxfId="67">
+      <calculatedColumnFormula>maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91E8664F-69A7-4D2B-8E5B-B7B3765BEED3}" name="czerwiec_saldo" displayName="czerwiec_saldo" ref="A1:E9" totalsRowCount="1">
+  <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1E77B320-0B85-4083-B8D0-CC7C99969187}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{740D7F37-8B5A-48E1-8368-CE319C900EFC}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{22FDA2FB-4653-4738-9972-4F73C9477759}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="65">
+      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{837B0130-77E2-4DB4-9BA7-17743F2894B3}" name="Operacje" totalsRowFunction="sum" dataDxfId="62" totalsRowDxfId="63">
+      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A157E97D-9441-405E-B490-75EECAF602AF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="61">
+      <calculatedColumnFormula>czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{FEBD5ED8-6C53-435F-B143-9FEF7C7D6371}" name="lipiec_saldo" displayName="lipiec_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{0FD0F232-B602-4285-88B7-3396ADF9BF78}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{0144FB71-8D58-4315-9EC1-BBBE7502B911}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{26017F7A-BD00-4B5D-A938-73C6FA055546}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="35">
+    <tableColumn id="3" xr3:uid="{26017F7A-BD00-4B5D-A938-73C6FA055546}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{F43A6591-8E1A-4002-B9E2-3CF0A79C9BCD}" name="Operacje" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="33">
+    <tableColumn id="4" xr3:uid="{F43A6591-8E1A-4002-B9E2-3CF0A79C9BCD}" name="Operacje" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{0BC0AC6F-F48E-4F81-B873-C99C25CC31B9}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="31">
+    <tableColumn id="5" xr3:uid="{0BC0AC6F-F48E-4F81-B873-C99C25CC31B9}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
       <calculatedColumnFormula>lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -988,19 +1142,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1F4DED86-AB6D-4C8B-8039-8558E3A51D4C}" name="sierpień_saldo" displayName="sierpień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2A1CC9FF-A4E3-4FFB-8856-D3B9449C0037}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{D9AE0B12-C06B-49F5-B2DD-4FB8E76981A4}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{D7B4D74E-23B4-4392-AFF7-89B0DE37C741}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="29">
+    <tableColumn id="3" xr3:uid="{D7B4D74E-23B4-4392-AFF7-89B0DE37C741}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DFB8A4BF-F965-4F56-BFC1-556B56FB48C3}" name="Operacje" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="27">
+    <tableColumn id="4" xr3:uid="{DFB8A4BF-F965-4F56-BFC1-556B56FB48C3}" name="Operacje" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],sierpień_saldo[[#This Row],[Bank]],operacje[Produkt],sierpień_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7900A5D8-CF9C-4AB6-9DB6-9C3E3335A26A}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="25">
+    <tableColumn id="5" xr3:uid="{7900A5D8-CF9C-4AB6-9DB6-9C3E3335A26A}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
       <calculatedColumnFormula>sierpień_saldo[[#This Row],[Saldo początkowe]]+sierpień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1008,19 +1162,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{4233D304-3EB2-4196-84B2-DAAA980CA08D}" name="wrzesień_saldo" displayName="wrzesień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3C2A1E85-2138-40B3-BE5D-A83C506F6860}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{0DB3C641-DC22-4888-8357-6BB6D5098575}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{07AB9E70-5C31-4C2A-8451-95AAE8292E0C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="23">
+    <tableColumn id="3" xr3:uid="{07AB9E70-5C31-4C2A-8451-95AAE8292E0C}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="47">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8CCE47A5-042E-45F2-B022-BA376BE18B93}" name="Operacje" totalsRowFunction="sum" dataDxfId="20" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{8CCE47A5-042E-45F2-B022-BA376BE18B93}" name="Operacje" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="45">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],wrzesień_saldo[[#This Row],[Bank]],operacje[Produkt],wrzesień_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1EA77BBF-B849-44A4-8EC5-E70C25C2C318}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19">
+    <tableColumn id="5" xr3:uid="{1EA77BBF-B849-44A4-8EC5-E70C25C2C318}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
       <calculatedColumnFormula>wrzesień_saldo[[#This Row],[Saldo początkowe]]+wrzesień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1028,19 +1182,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{78F3B9C1-B9E4-4513-833A-F0E64146F47B}" name="październik_saldo" displayName="październik_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{429BED34-5DDD-4EC4-B85D-905F13D89CAD}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{050DC4AD-4940-4E96-A1A0-355135D40341}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{730EBB9B-1937-4F52-B845-E0B770CA4359}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17">
+    <tableColumn id="3" xr3:uid="{730EBB9B-1937-4F52-B845-E0B770CA4359}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2F54AC3C-7A66-49D0-8BE2-79D81EB2CEA4}" name="Operacje" totalsRowFunction="sum" dataDxfId="14" totalsRowDxfId="15">
+    <tableColumn id="4" xr3:uid="{2F54AC3C-7A66-49D0-8BE2-79D81EB2CEA4}" name="Operacje" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],październik_saldo[[#This Row],[Bank]],operacje[Produkt],październik_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{22BD71FA-1282-4F92-9DD9-56DAC42CB0CB}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="13">
+    <tableColumn id="5" xr3:uid="{22BD71FA-1282-4F92-9DD9-56DAC42CB0CB}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="37">
       <calculatedColumnFormula>październik_saldo[[#This Row],[Saldo początkowe]]+październik_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1048,19 +1202,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{FD8FE37A-A7FA-4027-A982-F10D436EC06F}" name="listopad_saldo" displayName="listopad_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F84E5B16-A9B8-451F-AAD2-D26C5E5869A4}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{E8BA6A34-706C-41CA-B0CD-3B6EA77FF5F0}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{3BE7ADBE-C2E0-463F-A7A6-BA7350FD0B16}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="11">
+    <tableColumn id="3" xr3:uid="{3BE7ADBE-C2E0-463F-A7A6-BA7350FD0B16}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="35">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B94A05A4-BB88-464F-8BC0-4DE9ADDF8751}" name="Operacje" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="9">
+    <tableColumn id="4" xr3:uid="{B94A05A4-BB88-464F-8BC0-4DE9ADDF8751}" name="Operacje" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="33">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],listopad_saldo[[#This Row],[Bank]],operacje[Produkt],listopad_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{80E959EC-1622-418C-9CE8-42A2A5223D79}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="7">
+    <tableColumn id="5" xr3:uid="{80E959EC-1622-418C-9CE8-42A2A5223D79}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="31">
       <calculatedColumnFormula>listopad_saldo[[#This Row],[Saldo początkowe]]+listopad_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1068,19 +1222,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{2E976B55-7EC9-4BE7-9321-3AB6DFDC05B5}" name="grudzień_saldo" displayName="grudzień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{299FDA2D-447B-4397-850C-C15D7F22FFB2}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{3875D9C9-EDC4-4F5E-A266-055AB4AC988A}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{3C911614-F602-4B7A-BB6E-9B1EC4BC3484}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="4" totalsRowDxfId="5">
+    <tableColumn id="3" xr3:uid="{3C911614-F602-4B7A-BB6E-9B1EC4BC3484}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="28" totalsRowDxfId="29">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{83AF7F4F-EF42-4AD8-B05D-EDFEFC6A52C4}" name="Operacje" totalsRowFunction="sum" dataDxfId="2" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{83AF7F4F-EF42-4AD8-B05D-EDFEFC6A52C4}" name="Operacje" totalsRowFunction="sum" dataDxfId="26" totalsRowDxfId="27">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],grudzień_saldo[[#This Row],[Bank]],operacje[Produkt],grudzień_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{89FBA883-9EE5-4258-B030-C2867B1D05E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="0" totalsRowDxfId="1">
+    <tableColumn id="5" xr3:uid="{89FBA883-9EE5-4258-B030-C2867B1D05E4}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="24" totalsRowDxfId="25">
       <calculatedColumnFormula>grudzień_saldo[[#This Row],[Saldo początkowe]]+grudzień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1100,31 +1254,124 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B147AD91-F01E-45AB-B3F5-7767CF6F6AFF}" name="produkty" displayName="produkty" ref="I1:J8" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B147AD91-F01E-45AB-B3F5-7767CF6F6AFF}" name="produkty" displayName="produkty" ref="I1:J8" totalsRowShown="0" headerRowDxfId="96" dataDxfId="94" headerRowBorderDxfId="95" tableBorderDxfId="93" totalsRowBorderDxfId="92">
   <autoFilter ref="I1:J8" xr:uid="{B147AD91-F01E-45AB-B3F5-7767CF6F6AFF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J8">
     <sortCondition ref="I2:I8"/>
     <sortCondition ref="J2:J8"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{AF8E4BF8-A7D3-4449-9119-B183711D20A5}" name="Bank" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{616C5DC9-0BC1-47E2-9F9F-0F0E3394B68B}" name="Produkt" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{AF8E4BF8-A7D3-4449-9119-B183711D20A5}" name="Bank" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{616C5DC9-0BC1-47E2-9F9F-0F0E3394B68B}" name="Produkt" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{098EB288-FDC8-4EA5-B18D-EA3A67E20B4D}" name="saldo" displayName="saldo" ref="A1:N9" totalsRowCount="1">
+  <autoFilter ref="A1:N8" xr:uid="{098EB288-FDC8-4EA5-B18D-EA3A67E20B4D}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{FDAAA82A-2597-461B-858A-D765C912440F}" name="Bank" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{7BD9751A-5795-4EDE-8A71-6555A2E425DD}" name="Produkt"/>
+    <tableColumn id="3" xr3:uid="{2B6B2577-701B-4EC4-BB3A-564A017A6566}" name="Styczeń" totalsRowFunction="sum" dataDxfId="23">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C6637F60-EAF7-4C38-89AB-0EA8C3845291}" name="Luty" totalsRowFunction="sum" dataDxfId="22">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BD0E5B1F-9300-4C2F-B73A-39C9D5DB8275}" name="Marzec" totalsRowFunction="sum" dataDxfId="21">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{39C596E9-2A5E-4F30-8F1F-C8A8FB66AEED}" name="Kwiecień" totalsRowFunction="sum" dataDxfId="20">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4A9E3F57-0962-477A-8500-CB678DB8B072}" name="Maj" totalsRowFunction="sum" dataDxfId="19">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B7650E66-8675-41A1-AE06-F32335D7BD89}" name="Czerwiec" totalsRowFunction="sum" dataDxfId="18">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{B47B8FBE-DEC3-42B2-B991-5886E1714CF2}" name="Lipiec" totalsRowFunction="sum" dataDxfId="17">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A129387D-5861-426F-AAEA-3CB1DB8CD5B1}" name="Sierpień" totalsRowFunction="sum" dataDxfId="16">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{602D08E9-6B4D-4566-8AE7-CD745B285571}" name="Wrzesień" totalsRowFunction="sum" dataDxfId="15">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C14C5703-3E1E-45C1-8FDF-1C56830225FE}" name="Październik" totalsRowFunction="sum" dataDxfId="14">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{CD2B936A-7303-4ABB-BFDD-63DA2AFFDDC5}" name="Listopad" totalsRowFunction="sum" dataDxfId="13">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{7DBF0510-26EE-452C-823E-6C342EE0BF11}" name="Grudzień" totalsRowFunction="sum" dataDxfId="12">
+      <calculatedColumnFormula array="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3577B9DD-8DC8-4112-B37F-9FC36F394F04}" name="Tabela17" displayName="Tabela17" ref="B11:N15" totalsRowCount="1">
+  <autoFilter ref="B11:N14" xr:uid="{3577B9DD-8DC8-4112-B37F-9FC36F394F04}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{A46412E2-6D3D-46D3-A906-0C34FF8A7CFA}" name="Kolumna1" totalsRowLabel="Suma"/>
+    <tableColumn id="2" xr3:uid="{DCDD2047-1D4B-448C-B648-29CB97C4FB31}" name="Styczeń" totalsRowFunction="sum" dataDxfId="11">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{AE0635AF-4211-4440-827B-16FC5134EA98}" name="Luty" totalsRowFunction="sum" dataDxfId="10">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9AA11C9A-90FF-4168-B6BC-681CF1E5337E}" name="Marzec" totalsRowFunction="sum" dataDxfId="9">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{18BDBADB-DDDE-427E-A32B-F81760D61402}" name="Kwiecień" totalsRowFunction="sum" dataDxfId="8">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{E1AE1004-67FA-40B6-8448-6BBB62A4F381}" name="Maj" totalsRowFunction="sum" dataDxfId="7">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{B9788DED-F9A0-4FF2-A657-E016BA3CBB54}" name="Czerwiec" totalsRowFunction="sum" dataDxfId="6">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{E1A5D125-25F7-46CE-8B1C-2EE7335D55D0}" name="Lipiec" totalsRowFunction="sum" dataDxfId="5">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{261CAC99-1626-47BD-96D6-BAB3D657CE9C}" name="Sierpień" totalsRowFunction="sum" dataDxfId="4">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{AC5D651B-D12B-4B1A-8C8A-C34954DE6FA3}" name="Wrzesień" totalsRowFunction="sum" dataDxfId="3">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{5618BD67-1DBE-4927-8CB2-5983D17374B3}" name="Październik" totalsRowFunction="sum" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{2EAA226E-C49A-4DDE-A415-78543AC3C166}" name="Listopad" totalsRowFunction="sum" dataDxfId="1">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{788CC65C-1339-4163-905B-958D936CD409}" name="Grudzień" totalsRowFunction="sum" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}" name="styczeń_saldo" displayName="styczeń_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{6D5BA780-F5F3-425E-9E03-291232AA8139}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{7B174532-C8DD-4D5E-90F4-B1A5772C5C14}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{A6191FD7-277F-4E3E-B5DD-6A0017D9E3BF}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{9906C94A-2C3A-4E82-B611-26A78029ECEE}" name="Operacje" totalsRowFunction="sum" dataDxfId="74">
+    <tableColumn id="3" xr3:uid="{A6191FD7-277F-4E3E-B5DD-6A0017D9E3BF}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="99"/>
+    <tableColumn id="4" xr3:uid="{9906C94A-2C3A-4E82-B611-26A78029ECEE}" name="Operacje" totalsRowFunction="sum" dataDxfId="98">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],styczeń_saldo[[#This Row],[Bank]],operacje[Produkt],styczeń_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FAB5DFDC-D50A-4941-9DD7-2B8A9000B7C5}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="73">
+    <tableColumn id="5" xr3:uid="{FAB5DFDC-D50A-4941-9DD7-2B8A9000B7C5}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="97">
       <calculatedColumnFormula>styczeń_saldo[[#This Row],[Saldo początkowe]]+styczeń_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1132,19 +1379,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{788CB6A2-8923-41E5-84DF-B2BCE164FCAB}" name="luty_saldo" displayName="luty_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{515DC50D-C27D-4003-B953-A1B2840D1FD6}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{49FC7D21-0D61-4DEE-A7B9-BE15A50E1E0C}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{58F0BC4A-93A4-4CA0-874A-8315414DC447}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="63">
+    <tableColumn id="3" xr3:uid="{58F0BC4A-93A4-4CA0-874A-8315414DC447}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="87">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B8A65D18-74BF-4EE5-8AB8-C19B2551CEBF}" name="Operacje" totalsRowFunction="sum" dataDxfId="65" totalsRowDxfId="62">
+    <tableColumn id="4" xr3:uid="{B8A65D18-74BF-4EE5-8AB8-C19B2551CEBF}" name="Operacje" totalsRowFunction="sum" dataDxfId="89" totalsRowDxfId="86">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],luty_saldo[[#This Row],[Bank]],operacje[Produkt],luty_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{18F9D996-56C1-4700-9A23-9C31F1BD2F88}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="64" totalsRowDxfId="61">
+    <tableColumn id="5" xr3:uid="{18F9D996-56C1-4700-9A23-9C31F1BD2F88}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="85">
       <calculatedColumnFormula>luty_saldo[[#This Row],[Saldo początkowe]]+luty_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1152,19 +1399,19 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{747D3126-C4ED-4E8A-BACC-AD840AFC9598}" name="marzec_saldo" displayName="marzec_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{FBA9011F-C331-4FAE-870F-050067432B73}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{F86EEE51-0B67-4B5E-BCEB-61D15E481058}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{6603671E-4DA5-4850-B6AE-15C2301E9630}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="58" totalsRowDxfId="59">
+    <tableColumn id="3" xr3:uid="{6603671E-4DA5-4850-B6AE-15C2301E9630}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="82" totalsRowDxfId="83">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2233F788-B3C1-4C8E-A898-4E8D00762978}" name="Operacje" totalsRowFunction="sum" dataDxfId="56" totalsRowDxfId="57">
+    <tableColumn id="4" xr3:uid="{2233F788-B3C1-4C8E-A898-4E8D00762978}" name="Operacje" totalsRowFunction="sum" dataDxfId="80" totalsRowDxfId="81">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],marzec_saldo[[#This Row],[Bank]],operacje[Produkt],marzec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{76E9CFAC-1166-48F6-BC97-6CFF4810FD31}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="54" totalsRowDxfId="55">
+    <tableColumn id="5" xr3:uid="{76E9CFAC-1166-48F6-BC97-6CFF4810FD31}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="78" totalsRowDxfId="79">
       <calculatedColumnFormula>marzec_saldo[[#This Row],[Saldo początkowe]]+marzec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1172,60 +1419,20 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{943A4E8F-A69F-4EDD-9286-49ABFAF35E66}" name="kwiecień_saldo" displayName="kwiecień_saldo" ref="A1:E9" totalsRowCount="1">
   <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{52ADD602-8A2F-41E8-A5F5-3E42943C81C8}" name="Bank" totalsRowLabel="Suma"/>
     <tableColumn id="2" xr3:uid="{5E7588C4-98C4-47CE-948B-8F1FE88D2411}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{D5FF2845-8CBC-4B14-ABAE-830B14E69DA7}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="52" totalsRowDxfId="53">
+    <tableColumn id="3" xr3:uid="{D5FF2845-8CBC-4B14-ABAE-830B14E69DA7}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="76" totalsRowDxfId="77">
       <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{DFA71AC3-84F0-4127-AF1C-6A8D39C9343F}" name="Operacje" totalsRowFunction="sum" dataDxfId="50" totalsRowDxfId="51">
+    <tableColumn id="4" xr3:uid="{DFA71AC3-84F0-4127-AF1C-6A8D39C9343F}" name="Operacje" totalsRowFunction="sum" dataDxfId="74" totalsRowDxfId="75">
       <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],kwiecień_saldo[[#This Row],[Bank]],operacje[Produkt],kwiecień_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C84E40A7-BFDC-4885-8603-FBA3CFEDE55D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="49">
+    <tableColumn id="5" xr3:uid="{C84E40A7-BFDC-4885-8603-FBA3CFEDE55D}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="72" totalsRowDxfId="73">
       <calculatedColumnFormula>kwiecień_saldo[[#This Row],[Saldo początkowe]]+kwiecień_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A9CD3EC9-99A6-4868-B383-6B0C42390AAA}" name="maj_saldo" displayName="maj_saldo" ref="A1:E9" totalsRowCount="1">
-  <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5CA2E220-99DD-41F5-8C82-353DAF65DC72}" name="Bank" totalsRowLabel="Suma"/>
-    <tableColumn id="2" xr3:uid="{A439D3D5-5BBB-4841-919C-AC577CF6CE50}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{9350BA87-D394-4A02-947E-E2C72D4EDDB3}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="46" totalsRowDxfId="47">
-      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A3A5673D-2324-4462-8A7C-2615244E6F07}" name="Operacje" totalsRowFunction="sum" dataDxfId="44" totalsRowDxfId="45">
-      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],maj_saldo[[#This Row],[Bank]],operacje[Produkt],maj_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{06DAA3D4-CB0E-47AD-A1FD-B26FEDBBDEC3}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="42" totalsRowDxfId="43">
-      <calculatedColumnFormula>maj_saldo[[#This Row],[Saldo początkowe]]+maj_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{91E8664F-69A7-4D2B-8E5B-B7B3765BEED3}" name="czerwiec_saldo" displayName="czerwiec_saldo" ref="A1:E9" totalsRowCount="1">
-  <autoFilter ref="A1:E8" xr:uid="{9E99928C-49EA-49B5-9935-4F3503684763}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{1E77B320-0B85-4083-B8D0-CC7C99969187}" name="Bank" totalsRowLabel="Suma"/>
-    <tableColumn id="2" xr3:uid="{740D7F37-8B5A-48E1-8368-CE319C900EFC}" name="Produkt"/>
-    <tableColumn id="3" xr3:uid="{22FDA2FB-4653-4738-9972-4F73C9477759}" name="Saldo początkowe" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="41">
-      <calculatedColumnFormula array="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{837B0130-77E2-4DB4-9BA7-17743F2894B3}" name="Operacje" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="39">
-      <calculatedColumnFormula>SUMIFS(operacje[Kwota],operacje[Bank],czerwiec_saldo[[#This Row],[Bank]],operacje[Produkt],czerwiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{A157E97D-9441-405E-B490-75EECAF602AF}" name="Saldo końcowe" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="37">
-      <calculatedColumnFormula>czerwiec_saldo[[#This Row],[Saldo początkowe]]+czerwiec_saldo[[#This Row],[Operacje]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6751,6 +6958,470 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A23F8-3DE6-41D1-B1FE-9CC8BC7197C8}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>-1300</v>
+      </c>
+      <c r="D2" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>1165</v>
+      </c>
+      <c r="E2" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="D3" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>1010</v>
+      </c>
+      <c r="E3" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>9882.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="17" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="D4" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>-180</v>
+      </c>
+      <c r="E4" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="D5" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>-100</v>
+      </c>
+      <c r="E5" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="D6" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>1050</v>
+      </c>
+      <c r="E6" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="17" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="D7" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>-30</v>
+      </c>
+      <c r="E7" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="17" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="D8" s="17">
+        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="17">
+        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
+        <v>390.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="17">
+        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo początkowe])</f>
+        <v>10192.950000000001</v>
+      </c>
+      <c r="D9" s="17">
+        <f>SUBTOTAL(109,lipiec_saldo[Operacje])</f>
+        <v>2915</v>
+      </c>
+      <c r="E9" s="17">
+        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo końcowe])</f>
+        <v>13107.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
+        <v>lipiec</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15">
+        <f>SUBTOTAL(9,C14:C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Miesiąc],$B$11)</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Miesiąc],$B$11)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Miesiąc],$B$11)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Miesiąc],$B$11)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <f>SUBTOTAL(9,C16:C21)</f>
+        <v>5920</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Miesiąc],$B$11)</f>
+        <v>-165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Miesiąc],$B$11)</f>
+        <v>-2000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Miesiąc],$B$11)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Miesiąc],$B$11)</f>
+        <v>-700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Miesiąc],$B$11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Miesiąc],$B$11)</f>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Miesiąc],$B$11)</f>
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32">
+        <f>SUBTOTAL(9,C23:C31)</f>
+        <v>-3005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33">
+        <f>SUBTOTAL(9,C14:C31)</f>
+        <v>2915</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{14A42292-775B-4059-8D17-9B6BEF43F3CA}">
+      <formula1>$E$1:$G$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{301A51ED-9DC2-4E09-AFF4-CF215F2A0F0D}">
+      <formula1>CHOOSE(MATCH(A2,$E$1:$G$1,0),$E$2:$E$4,$F$2:$F$3,$A$14:$A$16)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF81EC6-8672-47D5-9492-8FE7E9524E10}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7214,7 +7885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669898AD-B9FB-4875-9225-FEFCC6AA07A4}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -7678,7 +8349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC058C83-FB46-443A-8F3A-6ADB315D4A61}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -8142,7 +8813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9768DA74-66B2-462F-A094-041C53AEA9CC}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -8606,11 +9277,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74B0480-5407-432C-BBEE-98F811A45FE0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -9393,11 +10064,797 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19047B15-F591-4902-8D77-8FD5E54A7A16}">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="21" cm="1">
+        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-175</v>
+      </c>
+      <c r="D2" s="21" cm="1">
+        <f t="array" aca="1" ref="D2" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="21" cm="1">
+        <f t="array" aca="1" ref="E2" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-104.5</v>
+      </c>
+      <c r="F2" s="21" cm="1">
+        <f t="array" aca="1" ref="F2" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-91.389999999999986</v>
+      </c>
+      <c r="G2" s="21" cm="1">
+        <f t="array" aca="1" ref="G2" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-1000</v>
+      </c>
+      <c r="H2" s="21" cm="1">
+        <f t="array" aca="1" ref="H2" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-1300</v>
+      </c>
+      <c r="I2" s="21" cm="1">
+        <f t="array" aca="1" ref="I2" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-135</v>
+      </c>
+      <c r="J2" s="21" cm="1">
+        <f t="array" aca="1" ref="J2" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-102</v>
+      </c>
+      <c r="K2" s="21" cm="1">
+        <f t="array" aca="1" ref="K2" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-20</v>
+      </c>
+      <c r="L2" s="21" cm="1">
+        <f t="array" aca="1" ref="L2" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>-40</v>
+      </c>
+      <c r="M2" s="21" cm="1">
+        <f t="array" aca="1" ref="M2" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="21" cm="1">
+        <f t="array" aca="1" ref="N2" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="21" cm="1">
+        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1700</v>
+      </c>
+      <c r="D3" s="21" cm="1">
+        <f t="array" aca="1" ref="D3" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>3739.5</v>
+      </c>
+      <c r="E3" s="21" cm="1">
+        <f t="array" aca="1" ref="E3" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>4561.1000000000004</v>
+      </c>
+      <c r="F3" s="21" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>5123.83</v>
+      </c>
+      <c r="G3" s="21" cm="1">
+        <f t="array" aca="1" ref="G3" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>7452.4400000000005</v>
+      </c>
+      <c r="H3" s="21" cm="1">
+        <f t="array" aca="1" ref="H3" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>8872.44</v>
+      </c>
+      <c r="I3" s="21" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>9882.44</v>
+      </c>
+      <c r="J3" s="21" cm="1">
+        <f t="array" aca="1" ref="J3" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>11357.44</v>
+      </c>
+      <c r="K3" s="21" cm="1">
+        <f t="array" aca="1" ref="K3" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>13046.94</v>
+      </c>
+      <c r="L3" s="21" cm="1">
+        <f t="array" aca="1" ref="L3" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>14736.94</v>
+      </c>
+      <c r="M3" s="21" cm="1">
+        <f t="array" aca="1" ref="M3" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>15696.94</v>
+      </c>
+      <c r="N3" s="21" cm="1">
+        <f t="array" aca="1" ref="N3" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>17016.940000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21" cm="1">
+        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1600</v>
+      </c>
+      <c r="D4" s="21" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="E4" s="21" cm="1">
+        <f t="array" aca="1" ref="E4" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="F4" s="21" cm="1">
+        <f t="array" aca="1" ref="F4" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="G4" s="21" cm="1">
+        <f t="array" aca="1" ref="G4" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="H4" s="21" cm="1">
+        <f t="array" aca="1" ref="H4" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1200</v>
+      </c>
+      <c r="I4" s="21" cm="1">
+        <f t="array" aca="1" ref="I4" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1020</v>
+      </c>
+      <c r="J4" s="21" cm="1">
+        <f t="array" aca="1" ref="J4" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="21" cm="1">
+        <f t="array" aca="1" ref="K4" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="21" cm="1">
+        <f t="array" aca="1" ref="L4" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="21" cm="1">
+        <f t="array" aca="1" ref="M4" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="21" cm="1">
+        <f t="array" aca="1" ref="N4" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="21" cm="1">
+        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>100</v>
+      </c>
+      <c r="E5" s="21" cm="1">
+        <f t="array" aca="1" ref="E5" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>167.5</v>
+      </c>
+      <c r="F5" s="21" cm="1">
+        <f t="array" aca="1" ref="F5" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>268.5</v>
+      </c>
+      <c r="G5" s="21" cm="1">
+        <f t="array" aca="1" ref="G5" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>218.5</v>
+      </c>
+      <c r="H5" s="21" cm="1">
+        <f t="array" aca="1" ref="H5" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>468.5</v>
+      </c>
+      <c r="I5" s="21" cm="1">
+        <f t="array" aca="1" ref="I5" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>368.5</v>
+      </c>
+      <c r="J5" s="21" cm="1">
+        <f t="array" aca="1" ref="J5" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>568.5</v>
+      </c>
+      <c r="K5" s="21" cm="1">
+        <f t="array" aca="1" ref="K5" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="L5" s="21" cm="1">
+        <f t="array" aca="1" ref="L5" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="M5" s="21" cm="1">
+        <f t="array" aca="1" ref="M5" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+      <c r="N5" s="21" cm="1">
+        <f t="array" aca="1" ref="N5" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>548.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21" cm="1">
+        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>266</v>
+      </c>
+      <c r="D6" s="21" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>281</v>
+      </c>
+      <c r="E6" s="21" cm="1">
+        <f t="array" aca="1" ref="E6" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>286</v>
+      </c>
+      <c r="F6" s="21" cm="1">
+        <f t="array" aca="1" ref="F6" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="G6" s="21" cm="1">
+        <f t="array" aca="1" ref="G6" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="H6" s="21" cm="1">
+        <f t="array" aca="1" ref="H6" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>336</v>
+      </c>
+      <c r="I6" s="21" cm="1">
+        <f t="array" aca="1" ref="I6" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1386</v>
+      </c>
+      <c r="J6" s="21" cm="1">
+        <f t="array" aca="1" ref="J6" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="K6" s="21" cm="1">
+        <f t="array" aca="1" ref="K6" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="L6" s="21" cm="1">
+        <f t="array" aca="1" ref="L6" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="M6" s="21" cm="1">
+        <f t="array" aca="1" ref="M6" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1086</v>
+      </c>
+      <c r="N6" s="21" cm="1">
+        <f t="array" aca="1" ref="N6" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="21" cm="1">
+        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>150</v>
+      </c>
+      <c r="D7" s="21" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>250</v>
+      </c>
+      <c r="E7" s="21" cm="1">
+        <f t="array" aca="1" ref="E7" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="F7" s="21" cm="1">
+        <f t="array" aca="1" ref="F7" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="G7" s="21" cm="1">
+        <f t="array" aca="1" ref="G7" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="H7" s="21" cm="1">
+        <f t="array" aca="1" ref="H7" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>225.51</v>
+      </c>
+      <c r="I7" s="21" cm="1">
+        <f t="array" aca="1" ref="I7" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="J7" s="21" cm="1">
+        <f t="array" aca="1" ref="J7" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="K7" s="21" cm="1">
+        <f t="array" aca="1" ref="K7" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="L7" s="21" cm="1">
+        <f t="array" aca="1" ref="L7" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="M7" s="21" cm="1">
+        <f t="array" aca="1" ref="M7" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+      <c r="N7" s="21" cm="1">
+        <f t="array" aca="1" ref="N7" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>195.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="21" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(saldo[[#Headers],[Styczeń]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>180</v>
+      </c>
+      <c r="D8" s="21" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">INDIRECT(saldo[[#Headers],[Luty]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>680</v>
+      </c>
+      <c r="E8" s="21" cm="1">
+        <f t="array" aca="1" ref="E8" ca="1">INDIRECT(saldo[[#Headers],[Marzec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="F8" s="21" cm="1">
+        <f t="array" aca="1" ref="F8" ca="1">INDIRECT(saldo[[#Headers],[Kwiecień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>670.5</v>
+      </c>
+      <c r="G8" s="21" cm="1">
+        <f t="array" aca="1" ref="G8" ca="1">INDIRECT(saldo[[#Headers],[Maj]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>590.5</v>
+      </c>
+      <c r="H8" s="21" cm="1">
+        <f t="array" aca="1" ref="H8" ca="1">INDIRECT(saldo[[#Headers],[Czerwiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="I8" s="21" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">INDIRECT(saldo[[#Headers],[Lipiec]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>390.5</v>
+      </c>
+      <c r="J8" s="21" cm="1">
+        <f t="array" aca="1" ref="J8" ca="1">INDIRECT(saldo[[#Headers],[Sierpień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="K8" s="21" cm="1">
+        <f t="array" aca="1" ref="K8" ca="1">INDIRECT(saldo[[#Headers],[Wrzesień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="L8" s="21" cm="1">
+        <f t="array" aca="1" ref="L8" ca="1">INDIRECT(saldo[[#Headers],[Październik]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>393</v>
+      </c>
+      <c r="M8" s="21" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">INDIRECT(saldo[[#Headers],[Listopad]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>793</v>
+      </c>
+      <c r="N8" s="21" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">INDIRECT(saldo[[#Headers],[Grudzień]]&amp;"_saldo[@[Saldo Końcowe]]")</f>
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Styczeń])</f>
+        <v>3786</v>
+      </c>
+      <c r="D9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Luty])</f>
+        <v>6250.5</v>
+      </c>
+      <c r="E9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Marzec])</f>
+        <v>7006.1100000000006</v>
+      </c>
+      <c r="F9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Kwiecień])</f>
+        <v>7732.95</v>
+      </c>
+      <c r="G9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Maj])</f>
+        <v>9022.9500000000007</v>
+      </c>
+      <c r="H9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Czerwiec])</f>
+        <v>10192.950000000001</v>
+      </c>
+      <c r="I9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Lipiec])</f>
+        <v>13107.95</v>
+      </c>
+      <c r="J9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Sierpień])</f>
+        <v>13498.45</v>
+      </c>
+      <c r="K9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Wrzesień])</f>
+        <v>15249.95</v>
+      </c>
+      <c r="L9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Październik])</f>
+        <v>16919.95</v>
+      </c>
+      <c r="M9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Listopad])</f>
+        <v>18319.95</v>
+      </c>
+      <c r="N9" s="21">
+        <f ca="1">SUBTOTAL(109,saldo[Grudzień])</f>
+        <v>20739.95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="21" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="21" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="21" cm="1">
+        <f t="array" aca="1" ref="E12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="21" cm="1">
+        <f t="array" aca="1" ref="F12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="21" cm="1">
+        <f t="array" aca="1" ref="G12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="21" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="21" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="21" cm="1">
+        <f t="array" aca="1" ref="J12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>-1020</v>
+      </c>
+      <c r="K12" s="21" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="21" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="21" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="21" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">_xlfn.XLOOKUP($B12&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="21" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>5655.5</v>
+      </c>
+      <c r="D13" s="21" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>6565</v>
+      </c>
+      <c r="E13" s="21" cm="1">
+        <f t="array" aca="1" ref="E13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>4655</v>
+      </c>
+      <c r="F13" s="21" cm="1">
+        <f t="array" aca="1" ref="F13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>4700</v>
+      </c>
+      <c r="G13" s="21" cm="1">
+        <f t="array" aca="1" ref="G13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="H13" s="21" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>4900</v>
+      </c>
+      <c r="I13" s="21" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>5920</v>
+      </c>
+      <c r="J13" s="21" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>5400</v>
+      </c>
+      <c r="K13" s="21" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="L13" s="21" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>4500</v>
+      </c>
+      <c r="M13" s="21" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>4900</v>
+      </c>
+      <c r="N13" s="21" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">_xlfn.XLOOKUP($B13&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(C$11&amp;"!$B$14:$B$32"),INDIRECT(C$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4810</v>
+      </c>
+      <c r="D14" s="21" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(D$11&amp;"!$B$14:$B$32"),INDIRECT(D$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4100.5</v>
+      </c>
+      <c r="E14" s="21" cm="1">
+        <f t="array" aca="1" ref="E14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(E$11&amp;"!$B$14:$B$32"),INDIRECT(E$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3899.39</v>
+      </c>
+      <c r="F14" s="21" cm="1">
+        <f t="array" aca="1" ref="F14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(F$11&amp;"!$B$14:$B$32"),INDIRECT(F$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3973.1600000000003</v>
+      </c>
+      <c r="G14" s="21" cm="1">
+        <f t="array" aca="1" ref="G14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(G$11&amp;"!$B$14:$B$32"),INDIRECT(G$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3210</v>
+      </c>
+      <c r="H14" s="21" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(H$11&amp;"!$B$14:$B$32"),INDIRECT(H$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3730</v>
+      </c>
+      <c r="I14" s="21" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(I$11&amp;"!$B$14:$B$32"),INDIRECT(I$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3005</v>
+      </c>
+      <c r="J14" s="21" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(J$11&amp;"!$B$14:$B$32"),INDIRECT(J$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3989.5</v>
+      </c>
+      <c r="K14" s="21" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(K$11&amp;"!$B$14:$B$32"),INDIRECT(K$11&amp;"!$C$14:$C$32"))</f>
+        <v>-2748.5</v>
+      </c>
+      <c r="L14" s="21" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(L$11&amp;"!$B$14:$B$32"),INDIRECT(L$11&amp;"!$C$14:$C$32"))</f>
+        <v>-2830</v>
+      </c>
+      <c r="M14" s="21" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(M$11&amp;"!$B$14:$B$32"),INDIRECT(M$11&amp;"!$C$14:$C$32"))</f>
+        <v>-3500</v>
+      </c>
+      <c r="N14" s="21" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">_xlfn.XLOOKUP($B14&amp;" Suma",INDIRECT(N$11&amp;"!$B$14:$B$32"),INDIRECT(N$11&amp;"!$C$14:$C$32"))</f>
+        <v>-4080</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Styczeń])</f>
+        <v>845.5</v>
+      </c>
+      <c r="D15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Luty])</f>
+        <v>2464.5</v>
+      </c>
+      <c r="E15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Marzec])</f>
+        <v>755.61000000000013</v>
+      </c>
+      <c r="F15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Kwiecień])</f>
+        <v>726.83999999999969</v>
+      </c>
+      <c r="G15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Maj])</f>
+        <v>1290</v>
+      </c>
+      <c r="H15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Czerwiec])</f>
+        <v>1170</v>
+      </c>
+      <c r="I15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Lipiec])</f>
+        <v>2915</v>
+      </c>
+      <c r="J15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Sierpień])</f>
+        <v>390.5</v>
+      </c>
+      <c r="K15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Wrzesień])</f>
+        <v>1751.5</v>
+      </c>
+      <c r="L15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Październik])</f>
+        <v>1670</v>
+      </c>
+      <c r="M15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Listopad])</f>
+        <v>1400</v>
+      </c>
+      <c r="N15" s="21">
+        <f ca="1">SUBTOTAL(109,Tabela17[Grudzień])</f>
+        <v>2420</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{8C2E290A-2EEE-4D92-8ED9-4805993923DD}">
+      <formula1>$E$1:$G$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{0AD0C739-A107-4D98-A31F-6FF0BD5E3773}">
+      <formula1>CHOOSE(MATCH(A2,$E$1:$G$1,0),$E$2:$E$4,$F$2:$F$3,$A$15:$A$17)</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5DFC288-87C7-4DF7-8536-D679AFD5B8C6}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -9849,7 +11306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A50D21-E4DE-46A4-83E7-9B09BE1BF88D}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -10313,7 +11770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98890D1F-2B26-41B6-A06C-188B1A6AFBF1}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -10777,7 +12234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BB0B84-788E-4640-92E5-4661FE15460F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -11241,7 +12698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{042BF27F-AB90-43A1-AE93-E9EC2EDF6B9C}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -11705,7 +13162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31BDDE79-7221-4475-9DA4-AC26B167790F}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -12167,468 +13624,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4A23F8-3DE6-41D1-B1FE-9CC8BC7197C8}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="17" cm="1">
-        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>-1300</v>
-      </c>
-      <c r="D2" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>1165</v>
-      </c>
-      <c r="E2" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>-135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="17" cm="1">
-        <f t="array" aca="1" ref="C3" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>8872.44</v>
-      </c>
-      <c r="D3" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>1010</v>
-      </c>
-      <c r="E3" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>9882.44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="17" cm="1">
-        <f t="array" aca="1" ref="C4" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>1200</v>
-      </c>
-      <c r="D4" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>-180</v>
-      </c>
-      <c r="E4" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="17" cm="1">
-        <f t="array" aca="1" ref="C5" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>468.5</v>
-      </c>
-      <c r="D5" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>-100</v>
-      </c>
-      <c r="E5" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>368.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="17" cm="1">
-        <f t="array" aca="1" ref="C6" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>336</v>
-      </c>
-      <c r="D6" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>1050</v>
-      </c>
-      <c r="E6" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17" cm="1">
-        <f t="array" aca="1" ref="C7" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>225.51</v>
-      </c>
-      <c r="D7" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>-30</v>
-      </c>
-      <c r="E7" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>195.51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="17" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">INDIRECT(TEXT(DATE(2025,$B$11-1,1),"mmmm")&amp;"_saldo[@[Saldo końcowe]]")</f>
-        <v>390.5</v>
-      </c>
-      <c r="D8" s="17">
-        <f>SUMIFS(operacje[Kwota],operacje[Bank],lipiec_saldo[[#This Row],[Bank]],operacje[Produkt],lipiec_saldo[[#This Row],[Produkt]],operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <f ca="1">lipiec_saldo[[#This Row],[Saldo początkowe]]+lipiec_saldo[[#This Row],[Operacje]]</f>
-        <v>390.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="17">
-        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo początkowe])</f>
-        <v>10192.950000000001</v>
-      </c>
-      <c r="D9" s="17">
-        <f>SUBTOTAL(109,lipiec_saldo[Operacje])</f>
-        <v>2915</v>
-      </c>
-      <c r="E9" s="17">
-        <f ca="1">SUBTOTAL(109,lipiec_saldo[Saldo końcowe])</f>
-        <v>13107.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11" t="str">
-        <f>TEXT(DATE(2025,B11,1),"mmmm")</f>
-        <v>lipiec</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A14,operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15">
-        <f>SUBTOTAL(9,C14:C14)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A16,operacje[Miesiąc],$B$11)</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A17,operacje[Miesiąc],$B$11)</f>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A18,operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A19,operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A20,operacje[Miesiąc],$B$11)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A21,operacje[Miesiąc],$B$11)</f>
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <f>SUBTOTAL(9,C16:C21)</f>
-        <v>5920</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A23,operacje[Miesiąc],$B$11)</f>
-        <v>-165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A24,operacje[Miesiąc],$B$11)</f>
-        <v>-2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A25,operacje[Miesiąc],$B$11)</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A26,operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A27,operacje[Miesiąc],$B$11)</f>
-        <v>-700</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A28,operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A29,operacje[Miesiąc],$B$11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A30,operacje[Miesiąc],$B$11)</f>
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31">
-        <f>SUMIFS(operacje[Kwota],operacje[Kategoria],$A31,operacje[Miesiąc],$B$11)</f>
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32">
-        <f>SUBTOTAL(9,C23:C31)</f>
-        <v>-3005</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33">
-        <f>SUBTOTAL(9,C14:C31)</f>
-        <v>2915</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{14A42292-775B-4059-8D17-9B6BEF43F3CA}">
-      <formula1>$E$1:$G$1</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B8" xr:uid="{301A51ED-9DC2-4E09-AFF4-CF215F2A0F0D}">
-      <formula1>CHOOSE(MATCH(A2,$E$1:$G$1,0),$E$2:$E$4,$F$2:$F$3,$A$14:$A$16)</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>